--- a/Public/excel_template/offer-template.xlsx
+++ b/Public/excel_template/offer-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vition\Desktop\wtc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\PHPTutorial\WWW\wms\Public\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -266,7 +266,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,7 +293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +564,7 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -588,27 +594,18 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,6 +627,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="19" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="標準_見積例" xfId="1"/>
@@ -958,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="9" ySplit="12" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -976,7 +982,7 @@
     <col min="6" max="6" width="5.125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="4.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="45" customWidth="1"/>
     <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="28.125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="8.875" style="1"/>
@@ -990,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="J1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="20.25">
       <c r="A2" s="6" t="s">
@@ -1003,12 +1009,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="J2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1" ht="20.25">
       <c r="A3" s="6" t="s">
@@ -1018,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="J3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="20.25">
       <c r="A4" s="2" t="s">
@@ -1031,12 +1037,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="J4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:12" s="10" customFormat="1" ht="20.25">
       <c r="A5" s="2"/>
@@ -1044,10 +1050,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="J5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="20.25">
       <c r="A6" s="2"/>
@@ -1055,13 +1061,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="32"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="20.25">
       <c r="A7" s="22"/>
@@ -1069,41 +1075,41 @@
         <v>6</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="32"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="10"/>
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="18" thickBot="1">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="43"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="18" thickBot="1">
       <c r="E10" s="24"/>
@@ -1111,17 +1117,17 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="33"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" ht="17.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="29" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1143,7 @@
       <c r="I11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="44" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="28" t="s">
@@ -1156,7 +1162,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="19" t="s">
         <v>14</v>
       </c>
@@ -1171,16 +1177,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
